--- a/va_facility_data_2025-02-20/Ogden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ogden%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ogden VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ogden%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdd946eccc8df459495ad29cd2ef043f9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbb97e34827ff4c11aba1465bf63d0f0e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re1882674bff04055bf250a2091a93fc6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf16b15c8f34b43b2a96db21dcf3db226"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R08e1778c996747cc9d4f348493913358"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R07432983a8394f409f320ae2c0792faf"/>
   </x:sheets>
 </x:workbook>
 </file>
